--- a/documents/プレゼン/検索ページ_単体テスト.xlsx
+++ b/documents/プレゼン/検索ページ_単体テスト.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\テスト資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\プレゼン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D204D9-D5B4-49BF-B3AA-901A85494D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231CE6E4-02D1-47E7-BE12-CF8D95BF1FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{FD258A3B-E340-4176-83B1-3BE93211D855}"/>
   </bookViews>
@@ -1297,239 +1297,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1652,13 +1420,6 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1678,6 +1439,13 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1689,6 +1457,218 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1724,34 +1704,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A040816-DFA5-4B75-B8EE-984D4419F39C}" name="テーブル1" displayName="テーブル1" ref="B6:H40" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A040816-DFA5-4B75-B8EE-984D4419F39C}" name="テーブル1" displayName="テーブル1" ref="B6:H40" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <autoFilter ref="B6:H40" xr:uid="{1A040816-DFA5-4B75-B8EE-984D4419F39C}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7B947360-2DB2-4BDB-B18D-D77B6F290F63}" name="NO" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{7B947360-2DB2-4BDB-B18D-D77B6F290F63}" name="NO" dataDxfId="17">
       <calculatedColumnFormula>ROW()-ROW($B$6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E00F62F2-3911-4904-8DBB-FD33E21B82CC}" name="テスト項目(大)" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{7C43C0DE-4736-4174-8B81-5DDA0E93E731}" name="テスト項目(小)" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{E5D45E38-4099-4DE6-B61C-21893CFE9B53}" name="操作手順" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{D01E4F87-D327-48CD-91DC-D527DB9A4209}" name="結果" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{4CB2F8F0-43DF-40EC-9008-D2D02C7645F4}" name="担当者" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{B86EBFCB-CC60-4D2C-B4F2-A86D09FA810F}" name="実施日" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{E00F62F2-3911-4904-8DBB-FD33E21B82CC}" name="テスト項目(大)" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{7C43C0DE-4736-4174-8B81-5DDA0E93E731}" name="テスト項目(小)" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{E5D45E38-4099-4DE6-B61C-21893CFE9B53}" name="操作手順" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{D01E4F87-D327-48CD-91DC-D527DB9A4209}" name="結果" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{4CB2F8F0-43DF-40EC-9008-D2D02C7645F4}" name="担当者" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{B86EBFCB-CC60-4D2C-B4F2-A86D09FA810F}" name="実施日" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5D578CE2-16EB-4F17-A506-CE5EF4728C15}" name="テーブル25" displayName="テーブル25" ref="B5:H15" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="22" tableBorderDxfId="23" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5D578CE2-16EB-4F17-A506-CE5EF4728C15}" name="テーブル25" displayName="テーブル25" ref="B5:H15" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="B5:H15" xr:uid="{E1F3A0DC-5072-4C5A-9847-82F611DB211F}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{72BE2D43-2E1A-4D49-B4C7-C249EA356C43}" name="NO" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{E5E89D7F-7C9E-4B68-B091-5D6CC91DB51F}" name="テスト項目(大)" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{7EF167EA-1FD1-4636-A400-8A5ADFC7BEA2}" name="テスト項目(小)" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{2C8B85D1-A135-46DE-88B9-1DAC80450624}" name="原因と修正内容" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{680757CC-4539-46AD-81D8-7E77EE2BB875}" name="結果" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{98BF13B4-6FE0-41DD-803B-0AE2095E4B6D}" name="担当者" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{890F3540-3B7A-4821-A0F3-DCFAE4A7EC63}" name="実施日" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{72BE2D43-2E1A-4D49-B4C7-C249EA356C43}" name="NO" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{E5E89D7F-7C9E-4B68-B091-5D6CC91DB51F}" name="テスト項目(大)" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{7EF167EA-1FD1-4636-A400-8A5ADFC7BEA2}" name="テスト項目(小)" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{2C8B85D1-A135-46DE-88B9-1DAC80450624}" name="原因と修正内容" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{680757CC-4539-46AD-81D8-7E77EE2BB875}" name="結果" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{98BF13B4-6FE0-41DD-803B-0AE2095E4B6D}" name="担当者" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{890F3540-3B7A-4821-A0F3-DCFAE4A7EC63}" name="実施日" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2059,7 +2039,9 @@
   </sheetPr>
   <dimension ref="B2:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="78" zoomScaleNormal="78" workbookViewId="0"/>
+    <sheetView topLeftCell="A34" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2412,7 +2394,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2436,7 +2418,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2580,7 +2562,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B26" s="4">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2604,7 +2586,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B27" s="4">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -2700,7 +2682,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B31" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2751,7 +2733,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:8" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B33" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2949,13 +2931,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E21:E25">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:E30">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F40">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>"成功"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -2976,7 +2958,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -2990,9 +2972,7 @@
   </sheetPr>
   <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3037,7 +3017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="187.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" ht="150" x14ac:dyDescent="0.4">
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -3283,9 +3263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8AF95A-F29F-47B8-9718-3CBE66AC97E0}">
   <dimension ref="A2:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
